--- a/Report/10GroupSummary.xlsx
+++ b/Report/10GroupSummary.xlsx
@@ -27,9 +27,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Documents Contributed</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Perter Mavridis</t>
   </si>
   <si>
-    <t>Domain Model, Architectural Design, Data Dictionary,SRS</t>
-  </si>
-  <si>
     <t>Use Case Diagrams, Project Plan</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>Feasibility study, Risk Analysis, Domain Model</t>
+  </si>
+  <si>
+    <t>Documents Contributed to</t>
+  </si>
+  <si>
+    <t>Domain Model, Architectural Design, Data Dictionary,SRS,Feasibility study</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -484,13 +484,13 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -498,13 +498,13 @@
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -512,13 +512,13 @@
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -526,13 +526,13 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
